--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H2">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I2">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J2">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>3.382977661728</v>
+        <v>0.5995099630017778</v>
       </c>
       <c r="R2">
-        <v>30.446798955552</v>
+        <v>5.395589667016001</v>
       </c>
       <c r="S2">
-        <v>0.06810349719568456</v>
+        <v>0.01287026649845635</v>
       </c>
       <c r="T2">
-        <v>0.06810349719568455</v>
+        <v>0.01287026649845635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H3">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I3">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J3">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>3.196592487377333</v>
+        <v>1.044149808741333</v>
       </c>
       <c r="R3">
-        <v>28.769332386396</v>
+        <v>9.397348278672</v>
       </c>
       <c r="S3">
-        <v>0.06435133461349829</v>
+        <v>0.02241578477783084</v>
       </c>
       <c r="T3">
-        <v>0.06435133461349829</v>
+        <v>0.02241578477783085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H4">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I4">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J4">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>3.749145564792445</v>
+        <v>1.289918297532444</v>
       </c>
       <c r="R4">
-        <v>33.742310083132</v>
+        <v>11.609264677792</v>
       </c>
       <c r="S4">
-        <v>0.07547490701657038</v>
+        <v>0.02769193720710264</v>
       </c>
       <c r="T4">
-        <v>0.07547490701657038</v>
+        <v>0.02769193720710265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.151954</v>
       </c>
       <c r="I5">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J5">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>5.698953322656</v>
+        <v>3.091838749591778</v>
       </c>
       <c r="R5">
-        <v>51.290579903904</v>
+        <v>27.826548746326</v>
       </c>
       <c r="S5">
-        <v>0.1147269330266851</v>
+        <v>0.06637552523440252</v>
       </c>
       <c r="T5">
-        <v>0.1147269330266851</v>
+        <v>0.06637552523440252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.151954</v>
       </c>
       <c r="I6">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J6">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>5.384969455521333</v>
@@ -818,10 +818,10 @@
         <v>48.464725099692</v>
       </c>
       <c r="S6">
-        <v>0.1084060519706827</v>
+        <v>0.1156044040228926</v>
       </c>
       <c r="T6">
-        <v>0.1084060519706827</v>
+        <v>0.1156044040228926</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.151954</v>
       </c>
       <c r="I7">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J7">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>6.315798598173778</v>
+        <v>6.652465550612444</v>
       </c>
       <c r="R7">
-        <v>56.842187383564</v>
+        <v>59.872189955512</v>
       </c>
       <c r="S7">
-        <v>0.1271447863771971</v>
+        <v>0.1428149818886802</v>
       </c>
       <c r="T7">
-        <v>0.1271447863771971</v>
+        <v>0.1428149818886803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H8">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I8">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J8">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>7.187880543455999</v>
+        <v>5.828008406281334</v>
       </c>
       <c r="R8">
-        <v>64.69092489110399</v>
+        <v>52.45207565653201</v>
       </c>
       <c r="S8">
-        <v>0.1447008675144867</v>
+        <v>0.1251155543245946</v>
       </c>
       <c r="T8">
-        <v>0.1447008675144867</v>
+        <v>0.1251155543245946</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H9">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I9">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J9">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>6.791864222254666</v>
+        <v>10.150479955816</v>
       </c>
       <c r="R9">
-        <v>61.126778000292</v>
+        <v>91.35431960234401</v>
       </c>
       <c r="S9">
-        <v>0.1367285723599854</v>
+        <v>0.2179102770277128</v>
       </c>
       <c r="T9">
-        <v>0.1367285723599854</v>
+        <v>0.2179102770277129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H10">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I10">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J10">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>7.965884837084888</v>
+        <v>12.53966596950933</v>
       </c>
       <c r="R10">
-        <v>71.692963533764</v>
+        <v>112.856993725584</v>
       </c>
       <c r="S10">
-        <v>0.1603630499252098</v>
+        <v>0.2692012690183273</v>
       </c>
       <c r="T10">
-        <v>0.1603630499252098</v>
+        <v>0.2692012690183274</v>
       </c>
     </row>
   </sheetData>
